--- a/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,26</t>
+          <t>-4,39; 2,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 4,32</t>
+          <t>-4,73; 4,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 6,53</t>
+          <t>1,08; 6,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-81,27; 124,47</t>
+          <t>-77,66; 147,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 71,96</t>
+          <t>-44,43; 85,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>157,11; 5751,3</t>
+          <t>178,11; 4753,6</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,56</t>
+          <t>-0,49; 5,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,62</t>
+          <t>-4,75; 1,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,84</t>
+          <t>-3,59; 2,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 1,03</t>
+          <t>-4,87; 0,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 128,55</t>
+          <t>-9,77; 129,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 28,62</t>
+          <t>-55,12; 31,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 55,36</t>
+          <t>-41,82; 56,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,66; 41,76</t>
+          <t>-69,39; 35,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 3,27</t>
+          <t>-5,09; 3,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,11</t>
+          <t>-1,89; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,4</t>
+          <t>0,14; 5,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 2,38</t>
+          <t>-3,86; 2,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,0; 65,77</t>
+          <t>-53,3; 67,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,46; 188,58</t>
+          <t>-42,56; 214,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 818,18</t>
+          <t>-15,56; 859,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 90,04</t>
+          <t>-58,0; 115,12</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,84</t>
+          <t>-1,54; 3,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,11</t>
+          <t>-2,91; 2,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,99</t>
+          <t>-6,04; 1,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,28</t>
+          <t>0,21; 2,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 311,29</t>
+          <t>-46,0; 347,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 49,93</t>
+          <t>-42,22; 53,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,63; 20,53</t>
+          <t>-60,78; 30,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,03</t>
+          <t>-2,29; 6,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 6,29</t>
+          <t>-1,7; 6,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,63</t>
+          <t>-2,78; 3,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,21</t>
+          <t>0,27; 4,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,09; 369,37</t>
+          <t>-47,35; 402,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 296,58</t>
+          <t>-37,2; 347,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-68,57; 328,59</t>
+          <t>-66,61; 261,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,32 +1168,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,26</t>
+          <t>-1,14; 4,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,81</t>
+          <t>-0,78; 4,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,92</t>
+          <t>-2,26; 0,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,3</t>
+          <t>-1,9; 2,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 721,01</t>
+          <t>-63,23; 725,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 581,7</t>
+          <t>-33,27; 612,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,29; 231,88</t>
+          <t>-67,51; 213,19</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,72</t>
+          <t>0,65; 6,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,56</t>
+          <t>1,37; 7,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,85</t>
+          <t>-1,31; 2,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,04</t>
+          <t>-2,6; 2,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,04; 192,75</t>
+          <t>8,99; 162,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,2; 212,41</t>
+          <t>20,94; 201,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 130,68</t>
+          <t>-33,78; 132,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 65,13</t>
+          <t>-50,35; 72,44</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,91</t>
+          <t>-2,6; 2,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,2</t>
+          <t>-0,15; 4,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,05</t>
+          <t>-0,55; 2,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,3</t>
+          <t>-0,94; 1,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 41,85</t>
+          <t>-37,94; 47,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 125,24</t>
+          <t>-3,58; 126,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 158,18</t>
+          <t>-17,72; 156,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 309,76</t>
+          <t>-57,99; 300,42</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,26</t>
+          <t>0,08; 2,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,49</t>
+          <t>0,42; 2,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,26</t>
+          <t>-0,73; 1,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,97</t>
+          <t>-0,63; 0,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,77</t>
+          <t>1,51; 58,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,55; 58,88</t>
+          <t>7,83; 60,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 32,95</t>
+          <t>-15,28; 35,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 51,79</t>
+          <t>-21,92; 50,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,59</t>
+          <t>-4,85; 2,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,62</t>
+          <t>-5,14; 4,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-77,66; 147,39</t>
+          <t>-80,07; 157,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,43; 85,5</t>
+          <t>-47,15; 74,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,5</t>
+          <t>-0,76; 5,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,63</t>
+          <t>-4,64; 1,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,84</t>
+          <t>-3,57; 2,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 129,77</t>
+          <t>-11,42; 140,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 31,49</t>
+          <t>-52,67; 24,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 56,64</t>
+          <t>-40,83; 52,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 3,44</t>
+          <t>-5,01; 3,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 4,23</t>
+          <t>-2,04; 3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 5,56</t>
+          <t>-0,25; 5,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,3; 67,93</t>
+          <t>-52,35; 61,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,56; 214,66</t>
+          <t>-44,91; 165,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 859,94</t>
+          <t>-20,99; 748,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,8</t>
+          <t>-1,54; 3,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,28</t>
+          <t>-3,3; 1,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 1,46</t>
+          <t>-6,74; 0,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 347,17</t>
+          <t>-48,68; 304,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,22; 53,1</t>
+          <t>-47,28; 43,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 30,47</t>
+          <t>-64,42; 13,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 6,13</t>
+          <t>-2,16; 6,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,47</t>
+          <t>-2,04; 6,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,31</t>
+          <t>-2,66; 3,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,35; 402,41</t>
+          <t>-47,53; 438,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 347,38</t>
+          <t>-39,1; 311,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-66,61; 261,39</t>
+          <t>-62,73; 322,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,33</t>
+          <t>-1,14; 4,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,82</t>
+          <t>-0,86; 4,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,65</t>
+          <t>-2,32; 0,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,12 +1188,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,23; 725,22</t>
+          <t>-59,34; 634,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 612,61</t>
+          <t>-41,17; 561,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,33</t>
+          <t>0,28; 6,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,26</t>
+          <t>1,7; 7,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,81</t>
+          <t>-1,33; 2,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,99; 162,31</t>
+          <t>2,68; 158,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,94; 201,14</t>
+          <t>25,33; 224,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 132,44</t>
+          <t>-35,34; 131,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,14</t>
+          <t>-3,02; 1,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,3</t>
+          <t>-0,26; 4,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,97</t>
+          <t>-0,66; 2,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 47,78</t>
+          <t>-42,57; 37,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 126,73</t>
+          <t>-7,99; 126,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 156,41</t>
+          <t>-21,91; 157,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,38</t>
+          <t>0,1; 2,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,6</t>
+          <t>0,37; 2,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,38</t>
+          <t>-0,78; 1,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,51; 58,0</t>
+          <t>1,38; 54,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,83; 60,71</t>
+          <t>5,8; 59,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 35,85</t>
+          <t>-15,54; 31,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,64</t>
+          <t>-4,77; 2,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 4,33</t>
+          <t>-5,31; 4,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,97</t>
+          <t>0,96; 6,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,07; 157,82</t>
+          <t>-81,27; 124,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 74,53</t>
+          <t>-49,88; 71,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>178,11; 4753,6</t>
+          <t>157,11; 5751,3</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,61</t>
+          <t>-0,88; 5,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,26</t>
+          <t>-4,59; 1,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 2,7</t>
+          <t>-3,09; 2,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,94</t>
+          <t>-4,49; 1,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 140,85</t>
+          <t>-15,39; 128,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 24,22</t>
+          <t>-52,22; 28,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 52,41</t>
+          <t>-37,85; 55,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,39; 35,95</t>
+          <t>-67,66; 41,76</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,28</t>
+          <t>-5,09; 3,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,91</t>
+          <t>-1,98; 4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,15</t>
+          <t>0,36; 5,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,74</t>
+          <t>-4,01; 2,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 61,11</t>
+          <t>-50,0; 65,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 165,95</t>
+          <t>-41,46; 188,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 748,76</t>
+          <t>-9,43; 818,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 115,12</t>
+          <t>-63,02; 90,04</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,68</t>
+          <t>-1,54; 3,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,89</t>
+          <t>-2,75; 2,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 0,81</t>
+          <t>-6,6; 0,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,11</t>
+          <t>0,15; 2,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 304,37</t>
+          <t>-49,65; 311,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 43,87</t>
+          <t>-39,81; 49,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,42; 13,61</t>
+          <t>-64,63; 20,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,35</t>
+          <t>-2,67; 6,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 6,28</t>
+          <t>-1,55; 6,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,47</t>
+          <t>-3,0; 3,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,63</t>
+          <t>0,24; 4,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 438,12</t>
+          <t>-54,09; 369,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 311,68</t>
+          <t>-33,76; 296,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-62,73; 322,84</t>
+          <t>-68,57; 328,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,32 +1168,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,05</t>
+          <t>-1,4; 4,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,76</t>
+          <t>-0,56; 4,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,86</t>
+          <t>-2,24; 0,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,24</t>
+          <t>-2,13; 2,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 634,86</t>
+          <t>-58,41; 721,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 561,63</t>
+          <t>-35,0; 581,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-67,51; 213,19</t>
+          <t>-71,29; 231,88</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,39</t>
+          <t>0,85; 6,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,61</t>
+          <t>1,72; 7,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,74</t>
+          <t>-1,28; 2,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,12</t>
+          <t>-2,71; 2,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 158,6</t>
+          <t>12,04; 192,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,33; 224,65</t>
+          <t>27,2; 212,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 131,31</t>
+          <t>-33,63; 130,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-50,35; 72,44</t>
+          <t>-49,62; 65,13</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,73</t>
+          <t>-2,92; 1,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,61</t>
+          <t>-0,2; 4,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,98</t>
+          <t>-0,76; 3,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,36</t>
+          <t>-1,03; 1,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 37,65</t>
+          <t>-40,93; 41,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 126,76</t>
+          <t>-3,87; 125,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 157,62</t>
+          <t>-21,94; 158,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 300,42</t>
+          <t>-57,16; 309,76</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,31</t>
+          <t>0,06; 2,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,59</t>
+          <t>0,21; 2,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,2</t>
+          <t>-0,78; 1,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,94</t>
+          <t>-0,6; 0,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 54,33</t>
+          <t>1,01; 52,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,8; 59,76</t>
+          <t>3,55; 58,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 31,24</t>
+          <t>-16,12; 32,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 50,06</t>
+          <t>-22,73; 51,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>909,62%</t>
+          <t>1312,49%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 4,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 6,53</t>
+          <t>1,15; 9,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,37; 88,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>157,11; 5751,3</t>
+          <t>216,44; 9562,42</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,34%</t>
+          <t>-37,45%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 1,03</t>
+          <t>-5,61; 0,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,66; 41,76</t>
+          <t>-71,08; 33,81</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>-12,74%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 2,38</t>
+          <t>-4,19; 2,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 90,04</t>
+          <t>-63,81; 88,22</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,74%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>846,06%</t>
+          <t>656,03%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,11</t>
+          <t>-3,52; 2,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,28</t>
+          <t>0,07; 2,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 49,93</t>
+          <t>-64,2; 81,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,21</t>
+          <t>0,21; 4,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,3</t>
+          <t>-2,07; 2,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,29; 231,88</t>
+          <t>-69,88; 251,99</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-13,04%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,04</t>
+          <t>-3,67; 1,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 65,13</t>
+          <t>-64,77; 45,05</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>73,65%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,3</t>
+          <t>-0,54; 1,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 309,76</t>
+          <t>-47,56; 541,9</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,97</t>
+          <t>-0,73; 1,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 51,79</t>
+          <t>-26,89; 65,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,26</t>
+          <t>-4,96; 2,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,73</t>
+          <t>-4,55; 4,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 4,32</t>
+          <t>-5,37; 4,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,41</t>
+          <t>1,27; 10,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-81,27; 124,47</t>
+          <t>-80,02; 113,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,37; 88,37</t>
+          <t>-48,4; 83,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 71,96</t>
+          <t>-48,78; 78,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>216,44; 9562,42</t>
+          <t>219,69; 7275,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,56</t>
+          <t>-0,44; 5,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,62</t>
+          <t>-4,65; 1,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,84</t>
+          <t>-3,6; 2,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 0,83</t>
+          <t>-5,48; 0,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 128,55</t>
+          <t>-7,62; 131,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 28,62</t>
+          <t>-51,92; 29,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 55,36</t>
+          <t>-43,01; 52,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,08; 33,81</t>
+          <t>-70,35; 28,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 3,27</t>
+          <t>-5,0; 3,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,11</t>
+          <t>-2,16; 3,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,4</t>
+          <t>0,05; 5,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,33</t>
+          <t>-4,06; 2,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,0; 65,77</t>
+          <t>-51,34; 59,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,46; 188,58</t>
+          <t>-47,24; 171,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 818,18</t>
+          <t>-11,33; 825,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,81; 88,22</t>
+          <t>-62,72; 109,28</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,84</t>
+          <t>-1,59; 3,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,25</t>
+          <t>-3,59; 1,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,99</t>
+          <t>-6,48; 0,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,1</t>
+          <t>0,09; 1,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 311,29</t>
+          <t>-46,91; 337,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,2; 81,7</t>
+          <t>-61,73; 70,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,63; 20,53</t>
+          <t>-64,03; 18,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,03</t>
+          <t>-2,27; 6,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 6,29</t>
+          <t>-2,03; 5,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,63</t>
+          <t>-2,49; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,1</t>
+          <t>0,19; 3,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,09; 369,37</t>
+          <t>-48,8; 409,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 296,58</t>
+          <t>-35,39; 302,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-68,57; 328,59</t>
+          <t>-65,98; 262,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,32 +1168,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,26</t>
+          <t>-1,25; 3,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,81</t>
+          <t>-0,74; 4,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,92</t>
+          <t>-2,34; 0,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,35</t>
+          <t>-2,2; 2,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 721,01</t>
+          <t>-57,8; 773,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 581,7</t>
+          <t>-32,8; 579,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 251,99</t>
+          <t>-69,31; 235,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,72</t>
+          <t>0,5; 6,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,56</t>
+          <t>1,93; 7,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,85</t>
+          <t>-1,39; 2,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,57</t>
+          <t>-3,82; 1,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,04; 192,75</t>
+          <t>5,75; 173,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,2; 212,41</t>
+          <t>29,8; 219,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 130,68</t>
+          <t>-35,8; 140,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 45,05</t>
+          <t>-66,55; 45,26</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,91</t>
+          <t>-2,88; 2,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,2</t>
+          <t>-0,04; 4,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,05</t>
+          <t>-0,52; 3,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,67</t>
+          <t>-0,53; 1,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 41,85</t>
+          <t>-41,03; 46,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 125,24</t>
+          <t>-1,98; 146,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 158,18</t>
+          <t>-17,02; 159,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 541,9</t>
+          <t>-41,73; 497,89</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,26</t>
+          <t>-0,11; 2,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,49</t>
+          <t>0,36; 2,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,26</t>
+          <t>-0,78; 1,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,14</t>
+          <t>-0,74; 1,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,77</t>
+          <t>-1,82; 52,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,55; 58,88</t>
+          <t>6,58; 57,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 32,95</t>
+          <t>-16,1; 32,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 65,39</t>
+          <t>-25,53; 59,69</t>
         </is>
       </c>
     </row>
